--- a/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Defectos.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Defectos.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235894_esen_edu_sv/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235894_esen_edu_sv/Documents/PDS/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/BF-0043/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9637865A-DA43-4776-8D61-D3B8A2373F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{9637865A-DA43-4776-8D61-D3B8A2373F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8580BEB0-E228-438A-80EC-2F088409769F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{64BF1E7B-A780-4405-9CA5-82E133D3DEBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Defectos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +35,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>ID DE DEFECTO</t>
+  </si>
+  <si>
+    <t>TÍTULO</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>PASOS PARA REPRODUCIR</t>
+  </si>
+  <si>
+    <t>RESULTADO ESPERADO</t>
+  </si>
+  <si>
+    <t>RESULTADO ACTUAL</t>
+  </si>
+  <si>
+    <t>SEVERIDAD</t>
+  </si>
+  <si>
+    <t>PRIORIDAD</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>ASIGNADO A</t>
+  </si>
+  <si>
+    <t>FECHA DE CREACION</t>
+  </si>
+  <si>
+    <t>CREADO POR</t>
+  </si>
+  <si>
+    <t>EVIDENCIA ADJUNTA</t>
+  </si>
+  <si>
+    <t>NOTAS</t>
+  </si>
+  <si>
+    <t>DE-01-CDP-02-BF-0043</t>
+  </si>
+  <si>
+    <t>Erro al no mostrar la categoria seleccionada</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -54,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +115,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +474,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F68637-DEF7-4516-8C03-05513FEFE998}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Defectos.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Defectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235894_esen_edu_sv/Documents/PDS/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/BF-0043/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{9637865A-DA43-4776-8D61-D3B8A2373F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8580BEB0-E228-438A-80EC-2F088409769F}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{9637865A-DA43-4776-8D61-D3B8A2373F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF6C6C31-3BFA-40F6-8152-936A1A6FABC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{64BF1E7B-A780-4405-9CA5-82E133D3DEBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ID DE DEFECTO</t>
   </si>
@@ -83,17 +83,61 @@
     <t>DE-01-CDP-02-BF-0043</t>
   </si>
   <si>
-    <t>Erro al no mostrar la categoria seleccionada</t>
+    <t>Error al no mostrar la categoria seleccionada</t>
+  </si>
+  <si>
+    <t>DE-02-CDP-02-BF-0043</t>
+  </si>
+  <si>
+    <t>Al momento de seleccionar el nombre de la categoria a la cual se desea crear, no aparece en la seccion, y aunque si se crea la categoria con el monto asignado.</t>
+  </si>
+  <si>
+    <t>Que aparezca el nombre de la la categoria en la seccion.</t>
+  </si>
+  <si>
+    <t>No aparece el nombre, pero su funcionalidad para crear la categoria si funciona.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Ricardo Cubias</t>
+  </si>
+  <si>
+    <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Agregar una categoría más.</t>
+  </si>
+  <si>
+    <t>DE-03-CDP-02-BF-0043</t>
+  </si>
+  <si>
+    <t>DE-04-CDP-02-BF-0043</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,17 +175,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F68637-DEF7-4516-8C03-05513FEFE998}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,9 +543,9 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
@@ -539,71 +597,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4">
+        <v>45605</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
@@ -614,12 +700,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
@@ -630,16 +716,27 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{490074EF-1412-4B11-9FC4-07931F1E024B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Defectos.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Defectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235894_esen_edu_sv/Documents/PDS/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/BF-0043/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{9637865A-DA43-4776-8D61-D3B8A2373F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF6C6C31-3BFA-40F6-8152-936A1A6FABC7}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{9637865A-DA43-4776-8D61-D3B8A2373F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21ACB682-71EC-44D4-894A-015340E2C24E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{64BF1E7B-A780-4405-9CA5-82E133D3DEBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>ID DE DEFECTO</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Al momento de seleccionar el nombre de la categoria a la cual se desea crear, no aparece en la seccion, y aunque si se crea la categoria con el monto asignado.</t>
   </si>
   <si>
-    <t>Que aparezca el nombre de la la categoria en la seccion.</t>
-  </si>
-  <si>
     <t>No aparece el nombre, pero su funcionalidad para crear la categoria si funciona.</t>
   </si>
   <si>
@@ -114,6 +111,63 @@
   </si>
   <si>
     <t>DE-04-CDP-02-BF-0043</t>
+  </si>
+  <si>
+    <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar los detalles y el total de gastos en el apartado "Detalles categorias".</t>
+  </si>
+  <si>
+    <t>Defecto al no mostrar el saldo resultante del presupuesto general.</t>
+  </si>
+  <si>
+    <t>En el momento que uno entra al apartado "Detalles de Categorías" se espera que se posea el monto del presupuesto general resultante.</t>
+  </si>
+  <si>
+    <t>Debe de aparecer el nombre de la la categoria en la seccion.</t>
+  </si>
+  <si>
+    <t>Debe de aparecer el saldo del presupuesto general resultante.</t>
+  </si>
+  <si>
+    <t>No aparece el saldo del presupuesto actual resultante,</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>El sistema no posee la funcionalidad de movientos para poder observar el saldo restante de la categoria y del presupuesto general.</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar los detalles y el total de gastos en el apartado "Detalles categorias". 5. Observar los movimientos y saldos resultantes del presupuesto.</t>
+  </si>
+  <si>
+    <t>Defecto al no mostrar los movimientos y el saldo resultante de cada categoria.</t>
+  </si>
+  <si>
+    <t>Al momento que se procede a observar los detalles de las categorias, este no posee los detalles de los movimientos para, tampoco refleja el saldo resultado de la categoria, puesto que no se han hecho cambios o movimientos.</t>
+  </si>
+  <si>
+    <t>Ver los movimientos y el saldo resultante de cada una de las categorias.</t>
+  </si>
+  <si>
+    <t>No se aparecia nada mas de el monto de cada categoria.</t>
+  </si>
+  <si>
+    <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar los detalles y el total de gastos en el apartado "Detalles categorias". 5. Observar los movimientos y saldos resultantes automaticos del presupuesto.</t>
+  </si>
+  <si>
+    <t>Ver los movimientos y el saldo automaticos resultante de cada una de las categorias.</t>
+  </si>
+  <si>
+    <t>Al momento de intentar realizar cambios o movimientos para cambiar los saldos de las categorias y consigo mismo tambien el monto resultante general al ver se los cambios, no se genera ya que no posee funcionalidades para crear estas salidas de flujo.</t>
+  </si>
+  <si>
+    <t>Defecto al no mostrar los movimientos y el saldo resultante automaticos de cada categoria.</t>
+  </si>
+  <si>
+    <t>El sistema no posee la funcionalidad de movientos para poder observar los cambios de manera automatica del saldo restante de la categoria y del presupuesto general.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -197,13 +251,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC6600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCD2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCD2D"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFCC6600"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -534,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F68637-DEF7-4516-8C03-05513FEFE998}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="168" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,12 +653,12 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,122 +717,198 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="4">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4">
+        <v>45606</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45607</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45608</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -734,8 +919,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:H5">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Baja">
+      <formula>NOT(ISERROR(SEARCH("Baja",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{490074EF-1412-4B11-9FC4-07931F1E024B}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{D8865E62-D9D9-4F2A-8A59-C4091A285097}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{AB340D28-6C50-4AB0-ABB4-8E527C5A4D03}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{0DA49C48-3BF6-4420-88FD-0007D14C4B10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
